--- a/data/datamodel_titanic.xlsx
+++ b/data/datamodel_titanic.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{06A81422-3C37-48E3-9B08-D1E5715F2FB1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2F7423-5022-4C6A-8FB6-30FA148C1BEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25207" windowHeight="12025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -649,10 +649,10 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="14.85" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
     <col min="2" max="2" width="39.28515625" style="1" customWidth="1"/>
@@ -664,7 +664,7 @@
     <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="84.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>54</v>
       </c>
@@ -675,7 +675,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -698,7 +698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30.1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
@@ -719,7 +719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -740,7 +740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>17</v>
       </c>
@@ -755,7 +755,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
@@ -776,7 +776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -797,7 +797,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="59.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>17</v>
       </c>
@@ -820,7 +820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="45.1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
@@ -843,7 +843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
@@ -862,7 +862,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="30.1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -904,7 +904,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="45.1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -925,7 +925,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -946,7 +946,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>17</v>
       </c>
@@ -965,7 +965,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="30.1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
@@ -986,7 +986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>18</v>
       </c>
@@ -1007,7 +1007,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.05" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>18</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="29.7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
@@ -1046,7 +1046,7 @@
       </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1063,15 +1063,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <ba8eccd8462144bb9813117a56b929ea xmlns="d07a1bb9-7583-4f6d-9865-57c0e5e69374">
@@ -1117,7 +1108,62 @@
 </p:properties>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="MR Document" ma:contentTypeID="0x010100D6789BAFB01B42A7B057B8ABDE664543001A8EEB119D78464EB486E8129C06B0BF" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="33aad778b2456c9e18af8b9cf3739643">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d07a1bb9-7583-4f6d-9865-57c0e5e69374" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b334c8185c192b988590019e5b38dc8f" ns2:_="">
     <xsd:import namespace="d07a1bb9-7583-4f6d-9865-57c0e5e69374"/>
@@ -1318,61 +1364,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7834EE8-291B-411A-9182-055C1719198E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BA9ECB2-B3EE-4D07-A9D1-8A6BC651C7DB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -1388,7 +1380,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7834EE8-291B-411A-9182-055C1719198E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16252F07-A9AA-44E9-BB0C-DD0D299A4301}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E073361B-0AA4-4C48-AC27-BEAC14508882}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1404,12 +1412,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16252F07-A9AA-44E9-BB0C-DD0D299A4301}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>